--- a/app/data/static/samples/by_department/mascarpone/План по варкам.xlsx
+++ b/app/data/static/samples/by_department/mascarpone/План по варкам.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/FileApps/coding_projects/umalat/app/data/static/samples/by_department/mascarpone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF528E2-F387-D544-BADD-9C50A360F5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC09882-412A-0946-BD9F-468AC1E6F9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8038,7 +8038,7 @@
   <dimension ref="A1:AMJ413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8192,7 +8192,7 @@
         <v>300</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E4" s="37">
         <f>IF(D4="-", "-", IF(D4="", "", INT(F4*VLOOKUP(D4, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>

--- a/app/data/static/samples/by_department/mascarpone/План по варкам.xlsx
+++ b/app/data/static/samples/by_department/mascarpone/План по варкам.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/FileApps/coding_projects/umalat/app/data/static/samples/by_department/mascarpone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC09882-412A-0946-BD9F-468AC1E6F9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55499C5A-30D3-F24C-A7A7-BD00CD155ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8038,7 +8038,7 @@
   <dimension ref="A1:AMJ413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9697,14 +9697,14 @@
       </c>
       <c r="C30" s="55">
         <f>IF(D30="","",VLOOKUP(D30, 'SKU Маскарпоне'!$A$1:$D$150, 4, 0))</f>
-        <v>525</v>
+        <v>370</v>
       </c>
       <c r="D30" s="56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E30" s="57">
         <f>IF(D30="-", "-", IF(D30="", "", INT(F30*VLOOKUP(D30, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
-        <v>525</v>
+        <v>370</v>
       </c>
       <c r="F30" s="58">
         <v>370</v>
@@ -9720,7 +9720,7 @@
       </c>
       <c r="K30" s="42">
         <f t="shared" ca="1" si="3"/>
-        <v>525</v>
+        <v>370</v>
       </c>
       <c r="L30" s="41">
         <f t="shared" ca="1" si="4"/>
@@ -9771,14 +9771,14 @@
       <c r="H31" s="40"/>
       <c r="I31" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>525</v>
+        <v>370</v>
       </c>
       <c r="J31" s="43" t="s">
         <v>409</v>
       </c>
       <c r="K31" s="42">
         <f t="shared" ca="1" si="3"/>
-        <v>-525</v>
+        <v>-370</v>
       </c>
       <c r="L31" s="41">
         <f t="shared" ca="1" si="4"/>

--- a/app/data/static/samples/by_department/mascarpone/План по варкам.xlsx
+++ b/app/data/static/samples/by_department/mascarpone/План по варкам.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/FileApps/coding_projects/umalat/app/data/static/samples/by_department/mascarpone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55499C5A-30D3-F24C-A7A7-BD00CD155ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED985662-CEF4-7E40-9217-6D072C2F5DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8038,7 +8038,7 @@
   <dimension ref="A1:AMJ413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8540,7 +8540,7 @@
         <v>600</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E10" s="51">
         <f>IF(D10="-", "-", IF(D10="", "", INT(F10*VLOOKUP(D10, 'SKU Маскарпоне'!$A$1:$C$150, 3, 0))))</f>
